--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Pdgfa-Pdgfra.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Pdgfa-Pdgfra.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.94998582092094</v>
+        <v>2.142637666666667</v>
       </c>
       <c r="H2">
-        <v>1.94998582092094</v>
+        <v>6.427913</v>
       </c>
       <c r="I2">
-        <v>0.05579124692600124</v>
+        <v>0.05953067687027142</v>
       </c>
       <c r="J2">
-        <v>0.05579124692600124</v>
+        <v>0.05953067687027141</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.182606966702135</v>
+        <v>0.236283</v>
       </c>
       <c r="N2">
-        <v>0.182606966702135</v>
+        <v>0.708849</v>
       </c>
       <c r="O2">
-        <v>0.001134153584084728</v>
+        <v>0.001461516295904947</v>
       </c>
       <c r="P2">
-        <v>0.001134153584084728</v>
+        <v>0.001461516295904947</v>
       </c>
       <c r="Q2">
-        <v>0.3560809958705455</v>
+        <v>0.5062688557930001</v>
       </c>
       <c r="R2">
-        <v>0.3560809958705455</v>
+        <v>4.556419702137</v>
       </c>
       <c r="S2">
-        <v>6.327584266168035E-05</v>
+        <v>8.700505435215339E-05</v>
       </c>
       <c r="T2">
-        <v>6.327584266168035E-05</v>
+        <v>8.700505435215336E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.94998582092094</v>
+        <v>2.142637666666667</v>
       </c>
       <c r="H3">
-        <v>1.94998582092094</v>
+        <v>6.427913</v>
       </c>
       <c r="I3">
-        <v>0.05579124692600124</v>
+        <v>0.05953067687027142</v>
       </c>
       <c r="J3">
-        <v>0.05579124692600124</v>
+        <v>0.05953067687027141</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>160.311776197413</v>
+        <v>160.8390196666666</v>
       </c>
       <c r="N3">
-        <v>160.311776197413</v>
+        <v>482.517059</v>
       </c>
       <c r="O3">
-        <v>0.9956803884808131</v>
+        <v>0.9948614511421033</v>
       </c>
       <c r="P3">
-        <v>0.9956803884808131</v>
+        <v>0.9948614511421032</v>
       </c>
       <c r="Q3">
-        <v>312.6056905116064</v>
+        <v>344.6197418075408</v>
       </c>
       <c r="R3">
-        <v>312.6056905116064</v>
+        <v>3101.577676267867</v>
       </c>
       <c r="S3">
-        <v>0.05555025041310989</v>
+        <v>0.05922477557862987</v>
       </c>
       <c r="T3">
-        <v>0.05555025041310989</v>
+        <v>0.05922477557862985</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.94998582092094</v>
+        <v>2.142637666666667</v>
       </c>
       <c r="H4">
-        <v>1.94998582092094</v>
+        <v>6.427913</v>
       </c>
       <c r="I4">
-        <v>0.05579124692600124</v>
+        <v>0.05953067687027142</v>
       </c>
       <c r="J4">
-        <v>0.05579124692600124</v>
+        <v>0.05953067687027141</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.101171799072301</v>
+        <v>0.119972</v>
       </c>
       <c r="N4">
-        <v>0.101171799072301</v>
+        <v>0.359916</v>
       </c>
       <c r="O4">
-        <v>0.0006283679127824237</v>
+        <v>0.0007420806111836584</v>
       </c>
       <c r="P4">
-        <v>0.0006283679127824237</v>
+        <v>0.0007420806111836582</v>
       </c>
       <c r="Q4">
-        <v>0.1972835736680493</v>
+        <v>0.2570565261453334</v>
       </c>
       <c r="R4">
-        <v>0.1972835736680493</v>
+        <v>2.313508735308</v>
       </c>
       <c r="S4">
-        <v>3.505742938242021E-05</v>
+        <v>4.417656107606789E-05</v>
       </c>
       <c r="T4">
-        <v>3.505742938242021E-05</v>
+        <v>4.417656107606787E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.94998582092094</v>
+        <v>2.142637666666667</v>
       </c>
       <c r="H5">
-        <v>1.94998582092094</v>
+        <v>6.427913</v>
       </c>
       <c r="I5">
-        <v>0.05579124692600124</v>
+        <v>0.05953067687027142</v>
       </c>
       <c r="J5">
-        <v>0.05579124692600124</v>
+        <v>0.05953067687027141</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.411710070939749</v>
+        <v>0.474493</v>
       </c>
       <c r="N5">
-        <v>0.411710070939749</v>
+        <v>1.423479</v>
       </c>
       <c r="O5">
-        <v>0.002557090022319693</v>
+        <v>0.002934951950808252</v>
       </c>
       <c r="P5">
-        <v>0.002557090022319693</v>
+        <v>0.002934951950808251</v>
       </c>
       <c r="Q5">
-        <v>0.8028288006628649</v>
+        <v>1.016666574369667</v>
       </c>
       <c r="R5">
-        <v>0.8028288006628649</v>
+        <v>9.149999169327</v>
       </c>
       <c r="S5">
-        <v>0.000142663240847252</v>
+        <v>0.0001747196762133388</v>
       </c>
       <c r="T5">
-        <v>0.000142663240847252</v>
+        <v>0.0001747196762133387</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.57296751387948</v>
+        <v>4.734454666666666</v>
       </c>
       <c r="H6">
-        <v>4.57296751387948</v>
+        <v>14.203364</v>
       </c>
       <c r="I6">
-        <v>0.1308376486711778</v>
+        <v>0.1315412751782492</v>
       </c>
       <c r="J6">
-        <v>0.1308376486711778</v>
+        <v>0.1315412751782492</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.182606966702135</v>
+        <v>0.236283</v>
       </c>
       <c r="N6">
-        <v>0.182606966702135</v>
+        <v>0.708849</v>
       </c>
       <c r="O6">
-        <v>0.001134153584084728</v>
+        <v>0.001461516295904947</v>
       </c>
       <c r="P6">
-        <v>0.001134153584084728</v>
+        <v>0.001461516295904947</v>
       </c>
       <c r="Q6">
-        <v>0.8350557265369352</v>
+        <v>1.118671152004</v>
       </c>
       <c r="R6">
-        <v>0.8350557265369352</v>
+        <v>10.068040368036</v>
       </c>
       <c r="S6">
-        <v>0.0001483899881736347</v>
+        <v>0.0001922497172571282</v>
       </c>
       <c r="T6">
-        <v>0.0001483899881736347</v>
+        <v>0.0001922497172571281</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.57296751387948</v>
+        <v>4.734454666666666</v>
       </c>
       <c r="H7">
-        <v>4.57296751387948</v>
+        <v>14.203364</v>
       </c>
       <c r="I7">
-        <v>0.1308376486711778</v>
+        <v>0.1315412751782492</v>
       </c>
       <c r="J7">
-        <v>0.1308376486711778</v>
+        <v>0.1315412751782492</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>160.311776197413</v>
+        <v>160.8390196666666</v>
       </c>
       <c r="N7">
-        <v>160.311776197413</v>
+        <v>482.517059</v>
       </c>
       <c r="O7">
-        <v>0.9956803884808131</v>
+        <v>0.9948614511421033</v>
       </c>
       <c r="P7">
-        <v>0.9956803884808131</v>
+        <v>0.9948614511421032</v>
       </c>
       <c r="Q7">
-        <v>733.1005446430872</v>
+        <v>761.4850472429416</v>
       </c>
       <c r="R7">
-        <v>733.1005446430872</v>
+        <v>6853.365425186475</v>
       </c>
       <c r="S7">
-        <v>0.1302724808568344</v>
+        <v>0.1308653439089158</v>
       </c>
       <c r="T7">
-        <v>0.1302724808568344</v>
+        <v>0.1308653439089157</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.57296751387948</v>
+        <v>4.734454666666666</v>
       </c>
       <c r="H8">
-        <v>4.57296751387948</v>
+        <v>14.203364</v>
       </c>
       <c r="I8">
-        <v>0.1308376486711778</v>
+        <v>0.1315412751782492</v>
       </c>
       <c r="J8">
-        <v>0.1308376486711778</v>
+        <v>0.1315412751782492</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.101171799072301</v>
+        <v>0.119972</v>
       </c>
       <c r="N8">
-        <v>0.101171799072301</v>
+        <v>0.359916</v>
       </c>
       <c r="O8">
-        <v>0.0006283679127824237</v>
+        <v>0.0007420806111836584</v>
       </c>
       <c r="P8">
-        <v>0.0006283679127824237</v>
+        <v>0.0007420806111836582</v>
       </c>
       <c r="Q8">
-        <v>0.4626553504783746</v>
+        <v>0.5680019952693334</v>
       </c>
       <c r="R8">
-        <v>0.4626553504783746</v>
+        <v>5.112017957423999</v>
       </c>
       <c r="S8">
-        <v>8.221418020886801E-05</v>
+        <v>9.761422988015298E-05</v>
       </c>
       <c r="T8">
-        <v>8.221418020886801E-05</v>
+        <v>9.761422988015294E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.57296751387948</v>
+        <v>4.734454666666666</v>
       </c>
       <c r="H9">
-        <v>4.57296751387948</v>
+        <v>14.203364</v>
       </c>
       <c r="I9">
-        <v>0.1308376486711778</v>
+        <v>0.1315412751782492</v>
       </c>
       <c r="J9">
-        <v>0.1308376486711778</v>
+        <v>0.1315412751782492</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.411710070939749</v>
+        <v>0.474493</v>
       </c>
       <c r="N9">
-        <v>0.411710070939749</v>
+        <v>1.423479</v>
       </c>
       <c r="O9">
-        <v>0.002557090022319693</v>
+        <v>0.002934951950808252</v>
       </c>
       <c r="P9">
-        <v>0.002557090022319693</v>
+        <v>0.002934951950808251</v>
       </c>
       <c r="Q9">
-        <v>1.882736779544488</v>
+        <v>2.246465598150666</v>
       </c>
       <c r="R9">
-        <v>1.882736779544488</v>
+        <v>20.218190383356</v>
       </c>
       <c r="S9">
-        <v>0.000334563645960838</v>
+        <v>0.0003860673221962077</v>
       </c>
       <c r="T9">
-        <v>0.000334563645960838</v>
+        <v>0.0003860673221962075</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.85631271695209</v>
+        <v>4.385605666666667</v>
       </c>
       <c r="H10">
-        <v>3.85631271695209</v>
+        <v>13.156817</v>
       </c>
       <c r="I10">
-        <v>0.1103333638158161</v>
+        <v>0.1218489144872206</v>
       </c>
       <c r="J10">
-        <v>0.1103333638158161</v>
+        <v>0.1218489144872206</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.182606966702135</v>
+        <v>0.236283</v>
       </c>
       <c r="N10">
-        <v>0.182606966702135</v>
+        <v>0.708849</v>
       </c>
       <c r="O10">
-        <v>0.001134153584084728</v>
+        <v>0.001461516295904947</v>
       </c>
       <c r="P10">
-        <v>0.001134153584084728</v>
+        <v>0.001461516295904947</v>
       </c>
       <c r="Q10">
-        <v>0.7041895678974901</v>
+        <v>1.036244063737</v>
       </c>
       <c r="R10">
-        <v>0.7041895678974901</v>
+        <v>9.326196573633</v>
       </c>
       <c r="S10">
-        <v>0.000125134980015832</v>
+        <v>0.0001780841741614013</v>
       </c>
       <c r="T10">
-        <v>0.000125134980015832</v>
+        <v>0.0001780841741614013</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.85631271695209</v>
+        <v>4.385605666666667</v>
       </c>
       <c r="H11">
-        <v>3.85631271695209</v>
+        <v>13.156817</v>
       </c>
       <c r="I11">
-        <v>0.1103333638158161</v>
+        <v>0.1218489144872206</v>
       </c>
       <c r="J11">
-        <v>0.1103333638158161</v>
+        <v>0.1218489144872206</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>160.311776197413</v>
+        <v>160.8390196666666</v>
       </c>
       <c r="N11">
-        <v>160.311776197413</v>
+        <v>482.517059</v>
       </c>
       <c r="O11">
-        <v>0.9956803884808131</v>
+        <v>0.9948614511421033</v>
       </c>
       <c r="P11">
-        <v>0.9956803884808131</v>
+        <v>0.9948614511421032</v>
       </c>
       <c r="Q11">
-        <v>618.2123412272612</v>
+        <v>705.3765160712447</v>
       </c>
       <c r="R11">
-        <v>618.2123412272612</v>
+        <v>6348.388644641203</v>
       </c>
       <c r="S11">
-        <v>0.1098567665465266</v>
+        <v>0.1212227878868464</v>
       </c>
       <c r="T11">
-        <v>0.1098567665465266</v>
+        <v>0.1212227878868463</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.85631271695209</v>
+        <v>4.385605666666667</v>
       </c>
       <c r="H12">
-        <v>3.85631271695209</v>
+        <v>13.156817</v>
       </c>
       <c r="I12">
-        <v>0.1103333638158161</v>
+        <v>0.1218489144872206</v>
       </c>
       <c r="J12">
-        <v>0.1103333638158161</v>
+        <v>0.1218489144872206</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.101171799072301</v>
+        <v>0.119972</v>
       </c>
       <c r="N12">
-        <v>0.101171799072301</v>
+        <v>0.359916</v>
       </c>
       <c r="O12">
-        <v>0.0006283679127824237</v>
+        <v>0.0007420806111836584</v>
       </c>
       <c r="P12">
-        <v>0.0006283679127824237</v>
+        <v>0.0007420806111836582</v>
       </c>
       <c r="Q12">
-        <v>0.390150095359436</v>
+        <v>0.5261498830413334</v>
       </c>
       <c r="R12">
-        <v>0.390150095359436</v>
+        <v>4.735348947372001</v>
       </c>
       <c r="S12">
-        <v>6.932994553120813E-05</v>
+        <v>9.0421716934742E-05</v>
       </c>
       <c r="T12">
-        <v>6.932994553120813E-05</v>
+        <v>9.042171693474195E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.85631271695209</v>
+        <v>4.385605666666667</v>
       </c>
       <c r="H13">
-        <v>3.85631271695209</v>
+        <v>13.156817</v>
       </c>
       <c r="I13">
-        <v>0.1103333638158161</v>
+        <v>0.1218489144872206</v>
       </c>
       <c r="J13">
-        <v>0.1103333638158161</v>
+        <v>0.1218489144872206</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.411710070939749</v>
+        <v>0.474493</v>
       </c>
       <c r="N13">
-        <v>0.411710070939749</v>
+        <v>1.423479</v>
       </c>
       <c r="O13">
-        <v>0.002557090022319693</v>
+        <v>0.002934951950808252</v>
       </c>
       <c r="P13">
-        <v>0.002557090022319693</v>
+        <v>0.002934951950808251</v>
       </c>
       <c r="Q13">
-        <v>1.587682782262201</v>
+        <v>2.080939189593667</v>
       </c>
       <c r="R13">
-        <v>1.587682782262201</v>
+        <v>18.728452706343</v>
       </c>
       <c r="S13">
-        <v>0.0002821323437423919</v>
+        <v>0.000357620709278136</v>
       </c>
       <c r="T13">
-        <v>0.0002821323437423919</v>
+        <v>0.0003576207092781359</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>24.5721990679876</v>
+        <v>24.72946233333333</v>
       </c>
       <c r="H14">
-        <v>24.5721990679876</v>
+        <v>74.18838700000001</v>
       </c>
       <c r="I14">
-        <v>0.7030377405870051</v>
+        <v>0.6870791334642589</v>
       </c>
       <c r="J14">
-        <v>0.7030377405870051</v>
+        <v>0.6870791334642588</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.182606966702135</v>
+        <v>0.236283</v>
       </c>
       <c r="N14">
-        <v>0.182606966702135</v>
+        <v>0.708849</v>
       </c>
       <c r="O14">
-        <v>0.001134153584084728</v>
+        <v>0.001461516295904947</v>
       </c>
       <c r="P14">
-        <v>0.001134153584084728</v>
+        <v>0.001461516295904947</v>
       </c>
       <c r="Q14">
-        <v>4.487054737006244</v>
+        <v>5.843151548507</v>
       </c>
       <c r="R14">
-        <v>4.487054737006244</v>
+        <v>52.588363936563</v>
       </c>
       <c r="S14">
-        <v>0.0007973527732335808</v>
+        <v>0.001004177350134264</v>
       </c>
       <c r="T14">
-        <v>0.0007973527732335808</v>
+        <v>0.001004177350134264</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>24.5721990679876</v>
+        <v>24.72946233333333</v>
       </c>
       <c r="H15">
-        <v>24.5721990679876</v>
+        <v>74.18838700000001</v>
       </c>
       <c r="I15">
-        <v>0.7030377405870051</v>
+        <v>0.6870791334642589</v>
       </c>
       <c r="J15">
-        <v>0.7030377405870051</v>
+        <v>0.6870791334642588</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>160.311776197413</v>
+        <v>160.8390196666666</v>
       </c>
       <c r="N15">
-        <v>160.311776197413</v>
+        <v>482.517059</v>
       </c>
       <c r="O15">
-        <v>0.9956803884808131</v>
+        <v>0.9948614511421033</v>
       </c>
       <c r="P15">
-        <v>0.9956803884808131</v>
+        <v>0.9948614511421032</v>
       </c>
       <c r="Q15">
-        <v>3939.212877665509</v>
+        <v>3977.462478577092</v>
       </c>
       <c r="R15">
-        <v>3939.212877665509</v>
+        <v>35797.16230719383</v>
       </c>
       <c r="S15">
-        <v>0.7000008906643423</v>
+        <v>0.6835485437677115</v>
       </c>
       <c r="T15">
-        <v>0.7000008906643423</v>
+        <v>0.6835485437677112</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>24.5721990679876</v>
+        <v>24.72946233333333</v>
       </c>
       <c r="H16">
-        <v>24.5721990679876</v>
+        <v>74.18838700000001</v>
       </c>
       <c r="I16">
-        <v>0.7030377405870051</v>
+        <v>0.6870791334642589</v>
       </c>
       <c r="J16">
-        <v>0.7030377405870051</v>
+        <v>0.6870791334642588</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.101171799072301</v>
+        <v>0.119972</v>
       </c>
       <c r="N16">
-        <v>0.101171799072301</v>
+        <v>0.359916</v>
       </c>
       <c r="O16">
-        <v>0.0006283679127824237</v>
+        <v>0.0007420806111836584</v>
       </c>
       <c r="P16">
-        <v>0.0006283679127824237</v>
+        <v>0.0007420806111836582</v>
       </c>
       <c r="Q16">
-        <v>2.486013586871024</v>
+        <v>2.966843055054667</v>
       </c>
       <c r="R16">
-        <v>2.486013586871024</v>
+        <v>26.701587495492</v>
       </c>
       <c r="S16">
-        <v>0.0004417663576599274</v>
+        <v>0.0005098681032926956</v>
       </c>
       <c r="T16">
-        <v>0.0004417663576599274</v>
+        <v>0.0005098681032926954</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>24.5721990679876</v>
+        <v>24.72946233333333</v>
       </c>
       <c r="H17">
-        <v>24.5721990679876</v>
+        <v>74.18838700000001</v>
       </c>
       <c r="I17">
-        <v>0.7030377405870051</v>
+        <v>0.6870791334642589</v>
       </c>
       <c r="J17">
-        <v>0.7030377405870051</v>
+        <v>0.6870791334642588</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.411710070939749</v>
+        <v>0.474493</v>
       </c>
       <c r="N17">
-        <v>0.411710070939749</v>
+        <v>1.423479</v>
       </c>
       <c r="O17">
-        <v>0.002557090022319693</v>
+        <v>0.002934951950808252</v>
       </c>
       <c r="P17">
-        <v>0.002557090022319693</v>
+        <v>0.002934951950808251</v>
       </c>
       <c r="Q17">
-        <v>10.11662182142681</v>
+        <v>11.73395677093033</v>
       </c>
       <c r="R17">
-        <v>10.11662182142681</v>
+        <v>105.605610938373</v>
       </c>
       <c r="S17">
-        <v>0.001797730791769211</v>
+        <v>0.00201654424312057</v>
       </c>
       <c r="T17">
-        <v>0.001797730791769211</v>
+        <v>0.002016544243120569</v>
       </c>
     </row>
   </sheetData>
